--- a/biology/Zoologie/Conus_wittigi/Conus_wittigi.xlsx
+++ b/biology/Zoologie/Conus_wittigi/Conus_wittigi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus wittigi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 22 mm et 42 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de Florès, en Indonésie.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente autour des îles de la Petite Sonde, de Florès et du Nord de Timor. Cette espèce est commune dans toute son aire de répartition. Il n'y a pas de menaces connues pour cette espèce. Elle est classée dans la catégorie " préoccupation mineure "[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente autour des îles de la Petite Sonde, de Florès et du Nord de Timor. Cette espèce est commune dans toute son aire de répartition. Il n'y a pas de menaces connues pour cette espèce. Elle est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_wittigi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_wittigi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus wittigi a été décrite pour la première fois en 1977 par le malacologiste américain Jerry Glenn Walls dans « The Pariah »[2],[3].
-Synonymes
-Asprella wittigi (Walls, 1977) · non accepté
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus wittigi a été décrite pour la première fois en 1977 par le malacologiste américain Jerry Glenn Walls dans « The Pariah »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_wittigi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_wittigi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Asprella wittigi (Walls, 1977) · non accepté
 Conus (Phasmoconus) wittigi Walls, 1977 · appellation alternative
 Conus kongaensis da Motta, 1984 · non accepté
 Graphiconus wittigi (Walls, 1977) · non accepté</t>
